--- a/template_sus.xlsx
+++ b/template_sus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alterkpicom.sharepoint.com/sites/AutresClients/Documents partages/Guillaume Gronier/AlterUX/Streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{497170E7-5861-42CD-B489-591BD3ECACAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4D853BB-DAB0-46AE-BA08-FCFE16712A8A}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{497170E7-5861-42CD-B489-591BD3ECACAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C85C76A-8B0F-49C9-9F96-8B7100EB1597}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="24680" windowHeight="14560" xr2:uid="{6A466B66-1920-4077-96D1-E0AFFE6A7795}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{6A466B66-1920-4077-96D1-E0AFFE6A7795}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,57 +36,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Sujet</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Question1</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Question2</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Question3</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Question4</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Question5</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Question6</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Question7</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Question8</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Question9</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Question10</t>
-    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category 3</t>
+  </si>
+  <si>
+    <t>Category 4</t>
+  </si>
+  <si>
+    <t>Category 1</t>
+  </si>
+  <si>
+    <t>Category 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,18 +113,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Verdana"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,17 +152,215 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -208,21 +421,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69BB8F63-E00E-4BAF-9903-F70C3E242848}" name="Table1" displayName="Table1" ref="A1:K2" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5C07E236-41C9-4008-B703-E097FE213A79}" name="Sujet" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69BB8F63-E00E-4BAF-9903-F70C3E242848}" name="Table1" displayName="Table1" ref="A1:O2" headerRowDxfId="13" tableBorderDxfId="12">
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{5C07E236-41C9-4008-B703-E097FE213A79}" name="Sujet" dataDxfId="10" totalsRowDxfId="11">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{13186BD4-BED7-4106-9BB7-3DB5A18F4516}" name="Question1"/>
-    <tableColumn id="3" xr3:uid="{7A93A3F4-6A5A-4D3D-A9DF-551994894270}" name="Question2"/>
-    <tableColumn id="4" xr3:uid="{DE6F33CD-7372-46F9-BC4A-73F717CFD2E5}" name="Question3"/>
-    <tableColumn id="5" xr3:uid="{F222FA22-CD78-44B9-B424-CD67D1BEBA3B}" name="Question4"/>
-    <tableColumn id="6" xr3:uid="{C6EFACCC-0108-467D-AE15-F48DD7BE1E24}" name="Question5"/>
-    <tableColumn id="7" xr3:uid="{804BEFE1-90E0-4A1D-A0FB-3F6FE91900D5}" name="Question6"/>
-    <tableColumn id="8" xr3:uid="{1F39F050-3E3A-4266-B62C-ECD7B8D563BE}" name="Question7"/>
-    <tableColumn id="9" xr3:uid="{684D6D91-9DD1-486C-B0B7-4B22342D84F4}" name="Question8"/>
-    <tableColumn id="10" xr3:uid="{03CF7BA5-3DD6-450A-B615-3CE729F596F0}" name="Question9"/>
-    <tableColumn id="11" xr3:uid="{5D65C28E-2FFE-49DF-8875-15CA9AE60CE1}" name="Question10"/>
+    <tableColumn id="2" xr3:uid="{13186BD4-BED7-4106-9BB7-3DB5A18F4516}" name="Question1" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{7A93A3F4-6A5A-4D3D-A9DF-551994894270}" name="Question2" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{DE6F33CD-7372-46F9-BC4A-73F717CFD2E5}" name="Question3" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{F222FA22-CD78-44B9-B424-CD67D1BEBA3B}" name="Question4" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{C6EFACCC-0108-467D-AE15-F48DD7BE1E24}" name="Question5" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{804BEFE1-90E0-4A1D-A0FB-3F6FE91900D5}" name="Question6" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{1F39F050-3E3A-4266-B62C-ECD7B8D563BE}" name="Question7" totalsRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{684D6D91-9DD1-486C-B0B7-4B22342D84F4}" name="Question8" totalsRowDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{03CF7BA5-3DD6-450A-B615-3CE729F596F0}" name="Question9" totalsRowDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{5D65C28E-2FFE-49DF-8875-15CA9AE60CE1}" name="Question10" totalsRowDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{5880E916-DD8D-406C-96DA-04BA039A1177}" name="Category 1"/>
+    <tableColumn id="13" xr3:uid="{5F0747E1-A9C5-44BF-90E6-7766D683B50F}" name="Category 2"/>
+    <tableColumn id="14" xr3:uid="{5F88574D-C97A-4D98-A82B-21D2EBE8A60D}" name="Category 3"/>
+    <tableColumn id="15" xr3:uid="{13007489-0E30-4909-AA66-3498707F1B6D}" name="Category 4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -545,19 +762,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A33C7AF-B1EA-44FB-868E-2491E7B20326}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="11" width="12.453125" customWidth="1"/>
+    <col min="1" max="15" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -590,8 +807,20 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -606,227 +835,6 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -836,17 +844,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fe95f226-17bd-48ac-b121-8b008b204525">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f1c2b24c-1bef-4db6-ac93-0552d2349689" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023107A54E8B8B9488EB77197E8D12F37" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="8f9023fb9bf83c802ea8f3bc5cb3a884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe95f226-17bd-48ac-b121-8b008b204525" xmlns:ns3="f1c2b24c-1bef-4db6-ac93-0552d2349689" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be4988409fc5188d44614dcb93e8393e" ns2:_="" ns3:_="">
     <xsd:import namespace="fe95f226-17bd-48ac-b121-8b008b204525"/>
@@ -1041,6 +1038,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fe95f226-17bd-48ac-b121-8b008b204525">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f1c2b24c-1bef-4db6-ac93-0552d2349689" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1051,17 +1059,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A39C2E2C-90BF-47C1-87F2-7437AA05CE03}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fe95f226-17bd-48ac-b121-8b008b204525"/>
-    <ds:schemaRef ds:uri="f1c2b24c-1bef-4db6-ac93-0552d2349689"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ACD9623-25A6-4BEB-995D-3DD7733FCBD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1080,6 +1077,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A39C2E2C-90BF-47C1-87F2-7437AA05CE03}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fe95f226-17bd-48ac-b121-8b008b204525"/>
+    <ds:schemaRef ds:uri="f1c2b24c-1bef-4db6-ac93-0552d2349689"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99CBAD79-4394-491C-AF12-AB345033C7F6}">
   <ds:schemaRefs>
